--- a/src/main/webapp/template/IdentityTemp.xlsx
+++ b/src/main/webapp/template/IdentityTemp.xlsx
@@ -26,34 +26,34 @@
     <t>序号</t>
   </si>
   <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>证件号</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>民族</t>
+  </si>
+  <si>
+    <t>发证机关</t>
+  </si>
+  <si>
+    <t>证件有效期</t>
+  </si>
+  <si>
+    <t>住址</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
     <t>学习中心</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>证件号</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>民族</t>
-  </si>
-  <si>
-    <t>发证机关</t>
-  </si>
-  <si>
-    <t>证件有效期</t>
-  </si>
-  <si>
-    <t>住址</t>
-  </si>
-  <si>
-    <t>手机号</t>
   </si>
 </sst>
 </file>
@@ -62,9 +62,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -95,6 +95,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -109,9 +155,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,29 +208,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,85 +234,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,187 +255,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,21 +473,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -508,6 +514,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -523,26 +538,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,156 +565,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="2"/>
@@ -1139,10 +1139,10 @@
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1154,16 +1154,16 @@
       <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
